--- a/data/2019级/20-21上学期1月期考成绩.xlsx
+++ b/data/2019级/20-21上学期1月期考成绩.xlsx
@@ -1628,12 +1628,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -1738,7 +1738,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1746,17 +1746,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1767,9 +1759,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1798,16 +1789,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1823,7 +1822,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1834,14 +1833,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1861,21 +1852,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1900,25 +1900,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1948,49 +1948,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2020,43 +2032,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2174,6 +2174,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2192,6 +2207,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -2199,16 +2223,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2247,30 +2271,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2279,10 +2279,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2291,133 +2291,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2850,8 +2850,8 @@
   <sheetPr/>
   <dimension ref="A1:U335"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A305"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="27.95" customHeight="1"/>
